--- a/interpreter/data.xlsx
+++ b/interpreter/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
   <si>
     <t>Persona</t>
   </si>
@@ -91,18 +91,21 @@
     <t>Fórmula 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Español, Ingles, Frances </t>
+  </si>
+  <si>
+    <t>Emiliana Verdun</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Fórmula 1, Volley</t>
+  </si>
+  <si>
     <t>Español, Inglés, Frances</t>
   </si>
   <si>
-    <t>Emiliana Verdun</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>Fórmula 1, Volley</t>
-  </si>
-  <si>
     <t>Benjamin Toledo</t>
   </si>
   <si>
@@ -154,72 +157,81 @@
     <t>Guido Salem</t>
   </si>
   <si>
+    <t>Estanislao Rios Zgaib</t>
+  </si>
+  <si>
+    <t>Tenis</t>
+  </si>
+  <si>
+    <t>Español, Ingles, Italiano</t>
+  </si>
+  <si>
+    <t>Federico Peitti</t>
+  </si>
+  <si>
+    <t>JPop, JRock, Pop, Rock, Rock Argentino, Musicales, Glam Rock, Scores</t>
+  </si>
+  <si>
+    <t>Español, Inglés, Frances, Japonés</t>
+  </si>
+  <si>
+    <t>Isabel Nuñez</t>
+  </si>
+  <si>
     <t>Rock</t>
   </si>
   <si>
-    <t>Estanislao Rios Zgaib</t>
-  </si>
-  <si>
-    <t>Tenis</t>
+    <t xml:space="preserve">Fútbol, Fútbol Americano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Español, Inglés </t>
+  </si>
+  <si>
+    <t>Ivan Mondrzak</t>
+  </si>
+  <si>
+    <t>Manuel Matías Milde</t>
+  </si>
+  <si>
+    <t>Rock, Jazz</t>
+  </si>
+  <si>
+    <t>Inglés, Español, Portugués</t>
+  </si>
+  <si>
+    <t>Serena Marelli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rock </t>
+  </si>
+  <si>
+    <t>Futbol</t>
+  </si>
+  <si>
+    <t>Josefina Jahde</t>
+  </si>
+  <si>
+    <t>Iara Guglielmetti</t>
+  </si>
+  <si>
+    <t>Urbano Latino</t>
+  </si>
+  <si>
+    <t>Ezequiel Grinblat</t>
+  </si>
+  <si>
+    <t>María Agustina Giménez Costa</t>
+  </si>
+  <si>
+    <t>Pop, Rock</t>
+  </si>
+  <si>
+    <t>Hockey</t>
   </si>
   <si>
     <t>Español, Inglés, Italiano</t>
   </si>
   <si>
-    <t>Federico Peitti</t>
-  </si>
-  <si>
-    <t>JPop, JRock, Pop, Rock, Rock Argentino, Musicales, Glam Rock, Scores</t>
-  </si>
-  <si>
-    <t>Español, Inglés, Frances, Japonés</t>
-  </si>
-  <si>
-    <t>Isabel Nuñez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fútbol, Fútbol Americano </t>
-  </si>
-  <si>
-    <t>Ivan Mondrzak</t>
-  </si>
-  <si>
-    <t>Manuel Matías Milde</t>
-  </si>
-  <si>
-    <t>Rock, Jazz</t>
-  </si>
-  <si>
-    <t>Inglés, Español, Portugués</t>
-  </si>
-  <si>
-    <t>Serena Marelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rock </t>
-  </si>
-  <si>
-    <t>Josefina Jahde</t>
-  </si>
-  <si>
-    <t>Iara Guglielmetti</t>
-  </si>
-  <si>
-    <t>Urbano Latino</t>
-  </si>
-  <si>
-    <t>Ezequiel Grinblat</t>
-  </si>
-  <si>
-    <t>María Agustina Giménez Costa</t>
-  </si>
-  <si>
-    <t>Pop, Rock</t>
-  </si>
-  <si>
-    <t>Hockey</t>
-  </si>
-  <si>
     <t>Valentina Gayo</t>
   </si>
   <si>
@@ -251,6 +263,9 @@
   </si>
   <si>
     <t>Camila Cauzzo</t>
+  </si>
+  <si>
+    <t>Tenis, fútbol</t>
   </si>
   <si>
     <t>Juan Castore Bergioli</t>
@@ -290,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -314,11 +329,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -371,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -391,19 +401,16 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -786,12 +793,12 @@
         <v>28</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4">
         <v>21.0</v>
@@ -800,18 +807,18 @@
         <v>12</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" s="4">
         <v>20.0</v>
@@ -826,12 +833,12 @@
         <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="4">
         <v>19.0</v>
@@ -843,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>10</v>
@@ -851,7 +858,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="4">
         <v>20.0</v>
@@ -860,10 +867,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>10</v>
@@ -871,7 +878,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4">
         <v>21.0</v>
@@ -880,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>10</v>
@@ -891,7 +898,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="4">
         <v>19.0</v>
@@ -903,31 +910,21 @@
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
@@ -980,18 +977,18 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="4">
         <v>19.0</v>
@@ -1003,7 +1000,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>10</v>
@@ -1011,7 +1008,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4">
         <v>21.0</v>
@@ -1020,18 +1017,18 @@
         <v>12</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="4">
         <v>20.0</v>
@@ -1040,10 +1037,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>10</v>
@@ -1051,16 +1048,16 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="F22" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B23" s="4">
         <v>20.0</v>
@@ -1069,10 +1066,10 @@
         <v>7</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>10</v>
@@ -1080,7 +1077,7 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B24" s="4">
         <v>21.0</v>
@@ -1089,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>14</v>
@@ -1100,7 +1097,7 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B25" s="4">
         <v>21.0</v>
@@ -1109,18 +1106,18 @@
         <v>7</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4">
         <v>20.0</v>
@@ -1135,12 +1132,12 @@
         <v>24</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B27" s="4">
         <v>21.0</v>
@@ -1149,10 +1146,10 @@
         <v>12</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>10</v>
@@ -1160,17 +1157,17 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+        <v>77</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B29" s="4">
         <v>21.0</v>
@@ -1182,7 +1179,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>10</v>
@@ -1190,7 +1187,7 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B30" s="4">
         <v>21.0</v>
@@ -1199,7 +1196,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>14</v>
@@ -1210,7 +1207,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B31" s="4">
         <v>26.0</v>
@@ -1219,18 +1216,18 @@
         <v>7</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B32" s="4">
         <v>21.0</v>
@@ -1242,55 +1239,55 @@
         <v>13</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+        <v>84</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+        <v>86</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+        <v>87</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4">
         <v>52.0</v>
@@ -1299,32 +1296,32 @@
         <v>12</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$F$38"/>
@@ -1347,59 +1344,59 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>87</v>
+      <c r="A1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>88</v>
+      <c r="B2" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>89</v>
+      <c r="B3" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>88</v>
+      <c r="B4" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>88</v>
+      <c r="B5" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>88</v>
+      <c r="B6" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>88</v>
+      <c r="B7" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
